--- a/dpgmm_alpha30_comp30_conversions.xlsx
+++ b/dpgmm_alpha30_comp30_conversions.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
